--- a/results/2026/GW_Ergebnisse_2026.xlsx
+++ b/results/2026/GW_Ergebnisse_2026.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>3.556</v>
+        <v>2.988</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -416,6 +416,34 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Iota DLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tanja</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kisch</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>2.41</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Gin</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bolero</t>
         </is>
       </c>
     </row>
@@ -470,25 +498,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann</t>
+          <t>Günter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tonner</t>
+          <t>Hafnter</t>
         </is>
       </c>
       <c r="D2">
-        <v>3.687</v>
+        <v>3.398</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Niviuk</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Carerra</t>
+          <t>Ikuma 3</t>
         </is>
       </c>
     </row>
@@ -498,25 +526,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Wolfi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tschinkel</t>
+          <t>Stückler</t>
         </is>
       </c>
       <c r="D3">
-        <v>3.59</v>
+        <v>3.369</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mac Para</t>
+          <t>Niviuk</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Eden 7</t>
+          <t>Ikuma 3</t>
         </is>
       </c>
     </row>
@@ -526,25 +554,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alfred</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Weber</t>
+          <t>Summann</t>
         </is>
       </c>
       <c r="D4">
-        <v>3.482</v>
+        <v>3.366</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rush 5</t>
+          <t>Mentor 7</t>
         </is>
       </c>
     </row>
@@ -554,25 +582,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Roel</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Henkes</t>
+          <t>Tschinkel</t>
         </is>
       </c>
       <c r="D5">
-        <v>3.479</v>
+        <v>3.357</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Advance</t>
+          <t>Mac Para</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Theta</t>
+          <t>Eden 7</t>
         </is>
       </c>
     </row>
@@ -582,16 +610,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Toni</t>
+          <t>Primus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Deutschmann</t>
+          <t>Kolmanz</t>
         </is>
       </c>
       <c r="D6">
-        <v>3.402</v>
+        <v>3.31</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -600,7 +628,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mentor 7 L</t>
+          <t>Mentor 1</t>
         </is>
       </c>
     </row>
@@ -610,16 +638,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Georg</t>
+          <t>Herbert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Leitner</t>
+          <t>Hackl</t>
         </is>
       </c>
       <c r="D7">
-        <v>3.322</v>
+        <v>3.187</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -628,7 +656,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>XI</t>
+          <t>Bi Beta</t>
         </is>
       </c>
     </row>
@@ -638,25 +666,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hans-Georg</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kauffmann</t>
+          <t>Fussi</t>
         </is>
       </c>
       <c r="D8">
-        <v>3.295</v>
+        <v>3.023</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Skywalk</t>
+          <t>Airdesign</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Chilli 3</t>
+          <t>Rise</t>
         </is>
       </c>
     </row>
@@ -666,25 +694,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fuchs</t>
+          <t>Schaller</t>
         </is>
       </c>
       <c r="D9">
-        <v>3.036</v>
+        <v>2.999</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Advance</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ion 4</t>
+          <t>Pi 3</t>
         </is>
       </c>
     </row>
@@ -694,25 +722,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Andreas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Schaffer</t>
+          <t>Riegler</t>
         </is>
       </c>
       <c r="D10">
-        <v>2.855</v>
+        <v>2.988</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Airdesign</t>
+          <t>Phi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rise 4</t>
+          <t>Maestro 2</t>
         </is>
       </c>
     </row>
@@ -722,25 +750,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Neumann</t>
+          <t>Schaffer</t>
         </is>
       </c>
       <c r="D11">
-        <v>2.822</v>
+        <v>2.854</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mac Para</t>
+          <t>Airdesign</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Aravis</t>
+          <t>Rise 4</t>
         </is>
       </c>
     </row>
@@ -750,25 +778,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Helbrecht</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Arlitzer</t>
+          <t>Sumann</t>
         </is>
       </c>
       <c r="D12">
-        <v>2.783</v>
+        <v>2.532</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Phi</t>
+          <t>Advance</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fantasia</t>
+          <t>Alpha 4</t>
         </is>
       </c>
     </row>
@@ -778,25 +806,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Helmbrecht</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sumann</t>
+          <t>Arlitzer</t>
         </is>
       </c>
       <c r="D13">
-        <v>2.768</v>
+        <v>2.43</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Andvance</t>
+          <t>Phi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Alpha 25</t>
+          <t>Fantasia</t>
         </is>
       </c>
     </row>
@@ -807,7 +835,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -851,16 +879,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stefan</t>
+          <t>Andreas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Petzner</t>
+          <t>Rottensteiner</t>
         </is>
       </c>
       <c r="D2">
-        <v>4.248</v>
+        <v>3.936</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -879,16 +907,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andreas</t>
+          <t>Stefan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rottensteiner</t>
+          <t>Petzner</t>
         </is>
       </c>
       <c r="D3">
-        <v>4.187</v>
+        <v>3.909</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -916,7 +944,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>4.131</v>
+        <v>3.698</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -925,7 +953,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Enzo 3</t>
+          <t>Photon</t>
         </is>
       </c>
     </row>
@@ -935,25 +963,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Egon</t>
+          <t>Alfred</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Schwarz</t>
+          <t>Weber</t>
         </is>
       </c>
       <c r="D5">
-        <v>4.119</v>
+        <v>3.665</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Niviuk</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Camino 2</t>
+          <t>Artik 7 P</t>
         </is>
       </c>
     </row>
@@ -963,25 +991,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Herbert</t>
+          <t>Georg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Schoberegger</t>
+          <t>Leitner</t>
         </is>
       </c>
       <c r="D6">
-        <v>4.056</v>
+        <v>3.644</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Niviuk</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Peak 4</t>
+          <t>Photon</t>
         </is>
       </c>
     </row>
@@ -991,25 +1019,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Herbert</t>
+          <t>Manfred</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hackl</t>
+          <t>Koppatz</t>
         </is>
       </c>
       <c r="D7">
-        <v>3.929</v>
+        <v>3.521</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Advance</t>
+          <t>Airdesign</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sigma 11</t>
+          <t>Hero</t>
         </is>
       </c>
     </row>
@@ -1019,25 +1047,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Egmont</t>
+          <t>Egon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kohm</t>
+          <t>Schwarz</t>
         </is>
       </c>
       <c r="D8">
-        <v>3.83</v>
+        <v>3.452</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Gin</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Zeno 1</t>
+          <t>Camino 2</t>
         </is>
       </c>
     </row>
@@ -1047,25 +1075,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eisner</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="D9">
-        <v>3.784</v>
+        <v>3.356</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aircross</t>
+          <t>Advance</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>U6</t>
+          <t>Delta 3</t>
         </is>
       </c>
     </row>
@@ -1075,25 +1103,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Johann</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Spiegl</t>
+          <t>Tonner</t>
         </is>
       </c>
       <c r="D10">
-        <v>3.704</v>
+        <v>3.278</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Airdesign</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Volt 4</t>
+          <t>Photon</t>
         </is>
       </c>
     </row>
@@ -1103,25 +1131,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Streitberger</t>
+          <t>Moitzi</t>
         </is>
       </c>
       <c r="D11">
-        <v>3.557</v>
+        <v>3.251</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Codex</t>
+          <t>Delta 4</t>
         </is>
       </c>
     </row>
@@ -1131,25 +1159,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Heinz</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Leitner</t>
+          <t>Hörzer</t>
         </is>
       </c>
       <c r="D12">
-        <v>3.459</v>
+        <v>3.166</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Airdesign</t>
+          <t>Advance</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Volt 3</t>
+          <t>Delta 4</t>
         </is>
       </c>
     </row>
@@ -1159,81 +1187,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Günter</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Schaller</t>
+          <t>Aschbitz</t>
         </is>
       </c>
       <c r="D13">
-        <v>3.388</v>
+        <v>2.986</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Advance</t>
+          <t>Mac Para</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sigma 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Andreas</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Strohmeier</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>3.362</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Airdesign</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Volt</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Richard</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Moitzi</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>2.863</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Ozone</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Delta 4</t>
+          <t>Elan 7</t>
         </is>
       </c>
     </row>

--- a/results/2026/GW_Ergebnisse_2026.xlsx
+++ b/results/2026/GW_Ergebnisse_2026.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hafnter</t>
+          <t>Hafner</t>
         </is>
       </c>
       <c r="D2">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Advance</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
